--- a/trend/weekly/trend_2019_weekly.xlsx
+++ b/trend/weekly/trend_2019_weekly.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="21143" yWindow="0" windowWidth="21129" windowHeight="10717"/>
+    <workbookView xWindow="22168" yWindow="0" windowWidth="21129" windowHeight="10717"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="62">
   <si>
     <t>目标值</t>
   </si>
@@ -197,23 +197,32 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>王宇阳</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1580高牌号硅钢一次投料合格率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>去年实绩</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1580高牌号硅钢总体一次投料合格率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1580高牌号硅钢板形一次投料合格率</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1580高牌号硅钢表面一次投料合格率</t>
+  </si>
+  <si>
+    <t>1580高牌号硅钢成份性能一次投料合格率</t>
+  </si>
+  <si>
+    <t>王宇阳</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -229,19 +238,29 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -258,16 +277,20 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -548,10 +571,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BF2"/>
+  <dimension ref="A1:BF5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.15" x14ac:dyDescent="0.15"/>
@@ -564,201 +587,201 @@
     <col min="14" max="58" width="7.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:58" x14ac:dyDescent="0.15">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:58" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="C1" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="R1" t="s">
+      <c r="R1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="S1" t="s">
+      <c r="S1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="T1" t="s">
+      <c r="T1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="U1" t="s">
+      <c r="U1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="V1" t="s">
+      <c r="V1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="W1" t="s">
+      <c r="W1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="X1" t="s">
+      <c r="X1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Y1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="Z1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AA1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AB1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AC1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AD1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AE1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AF1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AG1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AH1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AI1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AJ1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AK1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AL1" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AM1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AN1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AO1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AP1" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AQ1" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AR1" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AS1" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AT1" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="AU1" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="AV1" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="AW1" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="AX1" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="AY1" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="AZ1" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="BA1" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="BB1" t="s">
+      <c r="BB1" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="BC1" t="s">
+      <c r="BC1" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="BD1" t="s">
+      <c r="BD1" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="BE1" t="s">
+      <c r="BE1" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="BF1" t="s">
+      <c r="BF1" s="3" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:58" x14ac:dyDescent="0.15">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C2" s="2">
+      <c r="B2" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" s="4">
         <v>62.85</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="4">
         <v>68.88</v>
       </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2">
+      <c r="E2" s="1"/>
+      <c r="F2" s="1">
         <v>0</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="1">
         <v>61.77</v>
       </c>
-      <c r="H2" s="2"/>
+      <c r="H2" s="1"/>
       <c r="I2">
         <v>55.88</v>
       </c>
@@ -773,6 +796,48 @@
       </c>
       <c r="N2">
         <v>87.34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:58" x14ac:dyDescent="0.15">
+      <c r="A3" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="4">
+        <v>92.76</v>
+      </c>
+      <c r="D3" s="4">
+        <v>94.77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:58" x14ac:dyDescent="0.15">
+      <c r="A4" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" s="4">
+        <v>88.21</v>
+      </c>
+      <c r="D4" s="4">
+        <v>91.65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:58" x14ac:dyDescent="0.15">
+      <c r="A5" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C5" s="4">
+        <v>71.12</v>
+      </c>
+      <c r="D5" s="4">
+        <v>77.849999999999994</v>
       </c>
     </row>
   </sheetData>

--- a/trend/weekly/trend_2019_weekly.xlsx
+++ b/trend/weekly/trend_2019_weekly.xlsx
@@ -1,40 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NutCloudSync\code\OnceFeedingBlocker\trend\weekly\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="22168" yWindow="0" windowWidth="21129" windowHeight="10717"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="62">
   <si>
+    <t>负责人</t>
+  </si>
+  <si>
+    <t>去年实绩</t>
+  </si>
+  <si>
     <t>目标值</t>
   </si>
   <si>
     <t>第1周</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>第2周</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>第3周</t>
@@ -193,20 +187,10 @@
     <t>第54周</t>
   </si>
   <si>
-    <t>负责人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>去年实绩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1580高牌号硅钢总体一次投料合格率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1580高牌号硅钢板形一次投料合格率</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>1580高牌号硅钢表面一次投料合格率</t>
@@ -221,37 +205,21 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -263,7 +231,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -271,45 +239,41 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-  </cellStyleXfs>
-  <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -319,39 +283,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -383,10 +347,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -418,7 +381,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -430,366 +392,377 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BF5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.15" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="31.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="13" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="58" width="7.5" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:58" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="2"/>
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:58">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BE1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="BF1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="T1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="U1" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="V1" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="W1" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="X1" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="Y1" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z1" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="AA1" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="AB1" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="AC1" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="AD1" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="AE1" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AF1" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="AG1" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="AH1" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="AI1" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="AJ1" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="AK1" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="AL1" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="AM1" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AN1" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="AO1" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="AP1" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="AQ1" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="AR1" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="AS1" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AT1" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="AU1" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="AV1" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="AW1" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="AX1" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="AY1" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="AZ1" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="BA1" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="BB1" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="BC1" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="BD1" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="BE1" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="BF1" s="3" t="s">
-        <v>54</v>
-      </c>
     </row>
-    <row r="2" spans="1:58" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:58">
       <c r="A2" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" t="s">
         <v>61</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2">
         <v>62.85</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2">
         <v>68.88</v>
       </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1">
+      <c r="F2">
         <v>0</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G2">
         <v>61.77</v>
       </c>
-      <c r="H2" s="1"/>
       <c r="I2">
         <v>55.88</v>
       </c>
       <c r="K2">
-        <v>74.680000000000007</v>
+        <v>74.68000000000001</v>
       </c>
       <c r="L2">
-        <v>76.599999999999994</v>
+        <v>76.59999999999999</v>
       </c>
       <c r="M2">
         <v>72.2</v>
@@ -797,52 +770,98 @@
       <c r="N2">
         <v>87.34</v>
       </c>
+      <c r="O2">
+        <v>79.58</v>
+      </c>
+      <c r="Q2">
+        <v>91.51000000000001</v>
+      </c>
+      <c r="R2">
+        <v>38.58</v>
+      </c>
+      <c r="S2">
+        <v>52.11</v>
+      </c>
     </row>
-    <row r="3" spans="1:58" x14ac:dyDescent="0.15">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:58">
+      <c r="A3" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" t="s">
         <v>61</v>
       </c>
-      <c r="C3" s="4">
-        <v>92.76</v>
-      </c>
-      <c r="D3" s="4">
+      <c r="C3">
+        <v>92.76000000000001</v>
+      </c>
+      <c r="D3">
         <v>94.77</v>
       </c>
+      <c r="O3">
+        <v>79.58</v>
+      </c>
+      <c r="Q3">
+        <v>91.51000000000001</v>
+      </c>
+      <c r="R3">
+        <v>76.2</v>
+      </c>
+      <c r="S3">
+        <v>84.77</v>
+      </c>
     </row>
-    <row r="4" spans="1:58" x14ac:dyDescent="0.15">
-      <c r="A4" s="4" t="s">
+    <row r="4" spans="1:58">
+      <c r="A4" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" t="s">
         <v>61</v>
       </c>
-      <c r="C4" s="4">
-        <v>88.21</v>
-      </c>
-      <c r="D4" s="4">
-        <v>91.65</v>
+      <c r="C4">
+        <v>88.20999999999999</v>
+      </c>
+      <c r="D4">
+        <v>91.65000000000001</v>
+      </c>
+      <c r="O4">
+        <v>88.43000000000001</v>
+      </c>
+      <c r="Q4">
+        <v>94.70999999999999</v>
+      </c>
+      <c r="R4">
+        <v>79.77</v>
+      </c>
+      <c r="S4">
+        <v>90.22</v>
       </c>
     </row>
-    <row r="5" spans="1:58" x14ac:dyDescent="0.15">
-      <c r="A5" s="4" t="s">
+    <row r="5" spans="1:58">
+      <c r="A5" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" t="s">
         <v>61</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5">
         <v>71.12</v>
       </c>
-      <c r="D5" s="4">
-        <v>77.849999999999994</v>
+      <c r="D5">
+        <v>77.84999999999999</v>
+      </c>
+      <c r="O5">
+        <v>98.38</v>
+      </c>
+      <c r="Q5">
+        <v>97.92</v>
+      </c>
+      <c r="R5">
+        <v>59.11</v>
+      </c>
+      <c r="S5">
+        <v>64.08</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/trend/weekly/trend_2019_weekly.xlsx
+++ b/trend/weekly/trend_2019_weekly.xlsx
@@ -782,6 +782,9 @@
       <c r="S2">
         <v>52.11</v>
       </c>
+      <c r="V2">
+        <v>69.41</v>
+      </c>
     </row>
     <row r="3" spans="1:58">
       <c r="A3" s="1" t="s">
@@ -808,6 +811,9 @@
       <c r="S3">
         <v>84.77</v>
       </c>
+      <c r="V3">
+        <v>98.53</v>
+      </c>
     </row>
     <row r="4" spans="1:58">
       <c r="A4" s="1" t="s">
@@ -834,6 +840,9 @@
       <c r="S4">
         <v>90.22</v>
       </c>
+      <c r="V4">
+        <v>82.7</v>
+      </c>
     </row>
     <row r="5" spans="1:58">
       <c r="A5" s="1" t="s">
@@ -859,6 +868,9 @@
       </c>
       <c r="S5">
         <v>64.08</v>
+      </c>
+      <c r="V5">
+        <v>82.29000000000001</v>
       </c>
     </row>
   </sheetData>
